--- a/biology/Botanique/Parc_Gucun/Parc_Gucun.xlsx
+++ b/biology/Botanique/Parc_Gucun/Parc_Gucun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Gucun (chinois simplifié : 顾村公园 ; chinois traditionnel : 顧村公園 ; pinyin : Gù cūn gōngyuán) est un parc public situé dans le district de Baoshan, à Shanghai. Sa superficie totale dépasse les 4,3 km2. Il a été ouvert en 2009[1].   
+Le parc Gucun (chinois simplifié : 顾村公园 ; chinois traditionnel : 顧村公園 ; pinyin : Gù cūn gōngyuán) est un parc public situé dans le district de Baoshan, à Shanghai. Sa superficie totale dépasse les 4,3 km2. Il a été ouvert en 2009.   
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Attractions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gucun Park Dinosaur World, un parc ludo-éducatif présentant des reproductions grandeur nature de dinosaures[2]
-Un terrain de paintball[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gucun Park Dinosaur World, un parc ludo-éducatif présentant des reproductions grandeur nature de dinosaures
+Un terrain de paintball</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Adresse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">4788 Hutai Lu, à côté de Huandao Lu (顾村公园 沪太路4788号, 近环岛路)
 Station de métro Gucun Parc, ligne 7
